--- a/Logbook.xlsx
+++ b/Logbook.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Annet\Documents\GitHub\SnowScene\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C201A3C8-5D43-4280-AB44-59D7CC57A3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,37 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Time Spent</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>To Do</t>
+  </si>
+  <si>
+    <t>Work Done</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>2 Hours</t>
+  </si>
+  <si>
+    <t>30/07/2024 4pm - 6pm</t>
+  </si>
+  <si>
+    <t>Set up project</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +365,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Logbook.xlsx
+++ b/Logbook.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Annet\Documents\GitHub\SnowScene\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C201A3C8-5D43-4280-AB44-59D7CC57A3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D0A3B2-6B92-4D74-9253-290A2DEBD442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38505" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Time Spent</t>
   </si>
@@ -39,9 +50,6 @@
     <t>Work Done</t>
   </si>
   <si>
-    <t>Detail</t>
-  </si>
-  <si>
     <t>2 Hours</t>
   </si>
   <si>
@@ -49,16 +57,40 @@
   </si>
   <si>
     <t>Set up project</t>
+  </si>
+  <si>
+    <t>Work on setting up scene</t>
+  </si>
+  <si>
+    <t>2 Hour</t>
+  </si>
+  <si>
+    <t>Display the sky and ground on the screen. 3 ground points are random within a range. The sky has a gradient</t>
+  </si>
+  <si>
+    <t>Draw Snowman</t>
+  </si>
+  <si>
+    <t>06/08/2024 12pm - 2pm</t>
+  </si>
+  <si>
+    <t>03/08/2024 10am - 12pm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,8 +116,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,50 +401,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Logbook.xlsx
+++ b/Logbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Annet\Documents\GitHub\SnowScene\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D0A3B2-6B92-4D74-9253-290A2DEBD442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1A4608-A848-4ED5-BFBB-B662288CCC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38505" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31545" yWindow="2565" windowWidth="22890" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Time Spent</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>03/08/2024 10am - 12pm</t>
+  </si>
+  <si>
+    <t>Create a function for drawing a circle. Draw 3 circles for the snow man body, plus 3 more circles for the eyes and noes</t>
+  </si>
+  <si>
+    <t>Created the Visual studio project with freeGlut set up. Worked out how to draw to the screen.</t>
+  </si>
+  <si>
+    <t>Draw Snowman features &amp; Snow</t>
   </si>
 </sst>
 </file>
@@ -116,9 +125,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -401,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -440,6 +452,9 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -456,7 +471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -465,6 +480,17 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>45523</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Logbook.xlsx
+++ b/Logbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Annet\Documents\GitHub\SnowScene\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1A4608-A848-4ED5-BFBB-B662288CCC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2043CAA-2D58-448C-B70D-9D139DB84417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31545" yWindow="2565" windowWidth="22890" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38505" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Time Spent</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Work on setting up scene</t>
   </si>
   <si>
-    <t>2 Hour</t>
-  </si>
-  <si>
     <t>Display the sky and ground on the screen. 3 ground points are random within a range. The sky has a gradient</t>
   </si>
   <si>
@@ -83,7 +80,31 @@
     <t>Created the Visual studio project with freeGlut set up. Worked out how to draw to the screen.</t>
   </si>
   <si>
-    <t>Draw Snowman features &amp; Snow</t>
+    <t>Draw Snow</t>
+  </si>
+  <si>
+    <t>Created particle system for display the snow</t>
+  </si>
+  <si>
+    <t>19/08/2024 1pm - 4pm</t>
+  </si>
+  <si>
+    <t>Add Features</t>
+  </si>
+  <si>
+    <t>20/08/2024 3pm - 5pm</t>
+  </si>
+  <si>
+    <t>3 Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fixed scaling system and the snow disappearing.  Display diagnostic data to the screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/08/2024 9am - </t>
+  </si>
+  <si>
+    <t>Added the ability for the snowman to jumping following a parabolic curve based on the time.</t>
   </si>
 </sst>
 </file>
@@ -413,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,43 +475,74 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>45523</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Logbook.xlsx
+++ b/Logbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Annet\Documents\GitHub\SnowScene\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2043CAA-2D58-448C-B70D-9D139DB84417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA2805E-8943-4C9F-B689-5F443C7B2792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38505" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19305" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Time Spent</t>
   </si>
@@ -101,10 +101,19 @@
     <t xml:space="preserve"> Fixed scaling system and the snow disappearing.  Display diagnostic data to the screen</t>
   </si>
   <si>
-    <t xml:space="preserve">21/08/2024 9am - </t>
-  </si>
-  <si>
-    <t>Added the ability for the snowman to jumping following a parabolic curve based on the time.</t>
+    <t>21/08/2024 9am - 11am</t>
+  </si>
+  <si>
+    <t>Added the ability for the snowman to jumping following a parabolic curve based on the time. Fix the snowman not returning to the same place. Add day/night cycle</t>
+  </si>
+  <si>
+    <t>Add Features &amp; Diagnostic</t>
+  </si>
+  <si>
+    <t>I think I did well given the time spent. I unfortuanlly fell ill with influenza A which made it difficult to work on the proejct for a week and a half. Next time, I would make a start even earlier to ensure I had enough time to add the complex features that I wanted to add. I would also give the snowman more such as a scarf and t-shirt. While the snow might not be optimistise to handle large amounts of particles, I think I did well on managing what is still active and what is not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When looking for two additional features to add, I thought back to what I had implemented in a previous Unity game. I decided on having the snowman jump when a key is pressed. There are lots of ways of doing this, but I decided on having the snowman follow a parabolic curve to add some kind of gravity effect like seen in the real world. I decided the best way to do this was to have the snowman snowballs be contained in an array so the values could be passed to the drawing function. For the 2nd feature, I decided on a daynight cycle as I thought it would add more to the scene.  I did think about having the snowman start to melt when the sun was out but decided that keeping track of the data needed to make it look good would be too complex. Instead, I had the sky fade between the two colour states for day and night. </t>
   </si>
 </sst>
 </file>
@@ -146,13 +155,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,18 +449,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="75" style="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -528,13 +543,16 @@
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
@@ -545,8 +563,124 @@
         <v>22</v>
       </c>
     </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:D15"/>
+    <mergeCell ref="A18:D25"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Logbook.xlsx
+++ b/Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Annet\Documents\GitHub\SnowScene\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA2805E-8943-4C9F-B689-5F443C7B2792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66192B84-8E1C-421F-A7B2-21BAFE3348EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19305" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Time Spent</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Work on setting up scene</t>
   </si>
   <si>
-    <t>Display the sky and ground on the screen. 3 ground points are random within a range. The sky has a gradient</t>
-  </si>
-  <si>
     <t>Draw Snowman</t>
   </si>
   <si>
@@ -74,18 +71,9 @@
     <t>03/08/2024 10am - 12pm</t>
   </si>
   <si>
-    <t>Create a function for drawing a circle. Draw 3 circles for the snow man body, plus 3 more circles for the eyes and noes</t>
-  </si>
-  <si>
-    <t>Created the Visual studio project with freeGlut set up. Worked out how to draw to the screen.</t>
-  </si>
-  <si>
     <t>Draw Snow</t>
   </si>
   <si>
-    <t>Created particle system for display the snow</t>
-  </si>
-  <si>
     <t>19/08/2024 1pm - 4pm</t>
   </si>
   <si>
@@ -98,15 +86,9 @@
     <t>3 Hours</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fixed scaling system and the snow disappearing.  Display diagnostic data to the screen</t>
-  </si>
-  <si>
     <t>21/08/2024 9am - 11am</t>
   </si>
   <si>
-    <t>Added the ability for the snowman to jumping following a parabolic curve based on the time. Fix the snowman not returning to the same place. Add day/night cycle</t>
-  </si>
-  <si>
     <t>Add Features &amp; Diagnostic</t>
   </si>
   <si>
@@ -114,6 +96,27 @@
   </si>
   <si>
     <t xml:space="preserve">When looking for two additional features to add, I thought back to what I had implemented in a previous Unity game. I decided on having the snowman jump when a key is pressed. There are lots of ways of doing this, but I decided on having the snowman follow a parabolic curve to add some kind of gravity effect like seen in the real world. I decided the best way to do this was to have the snowman snowballs be contained in an array so the values could be passed to the drawing function. For the 2nd feature, I decided on a daynight cycle as I thought it would add more to the scene.  I did think about having the snowman start to melt when the sun was out but decided that keeping track of the data needed to make it look good would be too complex. Instead, I had the sky fade between the two colour states for day and night. </t>
+  </si>
+  <si>
+    <t>Annette Scott - 21146499</t>
+  </si>
+  <si>
+    <t>Display the sky and ground on the screen. 3 ground points are random within a range. The sky has a gradient. I used a polygons to draw with by vertex colouring</t>
+  </si>
+  <si>
+    <t>Create a function for drawing a circle. Draw 3 circles for the snow man body, plus 3 more circles for the eyes and noes. I followed the algorithm in the document and translated that into C. From there, I was able to play around with the numbers to get the snowman looking right</t>
+  </si>
+  <si>
+    <t>Created particle system for display the snow. Created a type for the snow and an array, then in the think() function, updated the numbers to make the snow move.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fixed scaling system and the snow disappearing.  Display diagnostic data to the screen with the bitmap and a string constructor.</t>
+  </si>
+  <si>
+    <t>Added the ability for the snowman to jumping following a parabolic curve based on the time. Fix the snowman not returning to the same place. Add day/night cycle with the sky fading between the colours</t>
+  </si>
+  <si>
+    <t>Created the Visual studio project with freeGlut set up and GitHub connected. Worked out how to draw to the screen.</t>
   </si>
 </sst>
 </file>
@@ -155,19 +158,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,10 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:D25"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,119 +475,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -613,44 +624,44 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -674,13 +685,26 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A8:D15"/>
-    <mergeCell ref="A18:D25"/>
+  <mergeCells count="3">
+    <mergeCell ref="A10:D17"/>
+    <mergeCell ref="A20:D27"/>
+    <mergeCell ref="A1:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>